--- a/bom/جاروبرقی/D1G.xlsx
+++ b/bom/جاروبرقی/D1G.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1857,6 +1857,16 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>سایر</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
